--- a/i_test/test_D3_study_population/D3_bleeding_events.xlsx
+++ b/i_test/test_D3_study_population/D3_bleeding_events.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>person_id</t>
   </si>
@@ -33,13 +33,19 @@
     <t>bleeding_narrow</t>
   </si>
   <si>
-    <t>bleeding_broad</t>
-  </si>
-  <si>
     <t>P03</t>
   </si>
   <si>
     <t>P01</t>
+  </si>
+  <si>
+    <t>bleeding_possible</t>
+  </si>
+  <si>
+    <t>P04</t>
+  </si>
+  <si>
+    <t>P02</t>
   </si>
 </sst>
 </file>
@@ -357,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -378,7 +384,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -389,35 +395,68 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>1480</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
+        <v>-50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
         <v>110</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
